--- a/sims_impact_data_all_injuries.xlsx
+++ b/sims_impact_data_all_injuries.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C2">
@@ -620,7 +620,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C3">
@@ -729,7 +729,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C4">
@@ -838,7 +838,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C5">
@@ -947,7 +947,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C6">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C7">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C8">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C9">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C10">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C11">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C12">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C13">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C14">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C15">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C16">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C17">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C18">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C19">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C20">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C21">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C22">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C23">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C24">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C25">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C26">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C27">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C28">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C29">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C30">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C31">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C32">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C33">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C34">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C35">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C36">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C37">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C38">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C39">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C40">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C41">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C42">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C43">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C44">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C45">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C46">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C47">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C48">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C49">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C50">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C51">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C52">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C53">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C54">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C55">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C56">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C57">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C58">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C59">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C60">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C61">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C62">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C63">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C64">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C65">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C66">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C67">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C68">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C69">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C70">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C71">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C72">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C73">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C74">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C75">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C76">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C77">
@@ -8795,7 +8795,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C78">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C79">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C80">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C81">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C82">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C83">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C84">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C85">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C86">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C87">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C88">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C89">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C90">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C91">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C92">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C93">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C94">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C95">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C96">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C97">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C98">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C99">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C100">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C101">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C102">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C103">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C104">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C105">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C106">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C107">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C108">
@@ -12174,7 +12174,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C109">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C110">
@@ -12392,7 +12392,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C111">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C112">
@@ -12610,7 +12610,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C113">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C114">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C115">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C116">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C117">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C118">
@@ -13264,7 +13264,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C119">
@@ -13373,7 +13373,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C120">
@@ -13482,7 +13482,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C121">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C122">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C123">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C124">
@@ -13918,7 +13918,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C125">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C126">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C127">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C128">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C129">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C130">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C131">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C132">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C133">
@@ -14899,7 +14899,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C134">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C135">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C136">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C137">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C138">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C139">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C140">
@@ -15662,7 +15662,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C141">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C142">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C143">
@@ -15989,7 +15989,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C144">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C145">
@@ -16207,7 +16207,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C146">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C147">
@@ -16425,7 +16425,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C148">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C149">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C150">
@@ -16752,7 +16752,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C151">
@@ -16861,7 +16861,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C152">
@@ -16970,7 +16970,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C153">
@@ -17079,7 +17079,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C154">
@@ -17188,7 +17188,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C155">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C156">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C157">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C158">
@@ -17624,7 +17624,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C159">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C160">
@@ -17842,7 +17842,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C161">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C162">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C163">
@@ -18169,7 +18169,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C164">
@@ -18278,7 +18278,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C165">
@@ -18387,7 +18387,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C166">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C167">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C168">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C169">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C170">
@@ -18932,7 +18932,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C171">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C172">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C173">
@@ -19259,7 +19259,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C174">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C175">
@@ -19477,7 +19477,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C176">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C177">
@@ -19695,7 +19695,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C178">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C179">
@@ -19913,7 +19913,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C180">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C181">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C182">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C183">
@@ -20349,7 +20349,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C184">
@@ -20458,7 +20458,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C185">
@@ -20567,7 +20567,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C186">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C187">
@@ -20785,7 +20785,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C188">
@@ -20894,7 +20894,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C189">
@@ -21003,7 +21003,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C190">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C191">
@@ -21221,7 +21221,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C192">
@@ -21330,7 +21330,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C193">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C194">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C195">
@@ -21657,7 +21657,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C196">
@@ -21766,7 +21766,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C197">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C198">
@@ -21984,7 +21984,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C199">
@@ -22093,7 +22093,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C200">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C201">
@@ -22311,7 +22311,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C202">
@@ -22420,7 +22420,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C203">
@@ -22529,7 +22529,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C204">
@@ -22638,7 +22638,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C205">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C206">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C207">
@@ -22965,7 +22965,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C208">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C209">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C210">
@@ -23292,7 +23292,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C211">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C212">
@@ -23510,7 +23510,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C213">
@@ -23619,7 +23619,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C214">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C215">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C216">
@@ -23946,7 +23946,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C217">
@@ -24055,7 +24055,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C218">
@@ -24164,7 +24164,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C219">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C220">
@@ -24382,7 +24382,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C221">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C222">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C223">
@@ -24709,7 +24709,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C224">
@@ -24818,7 +24818,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C225">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C226">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C227">
@@ -25145,7 +25145,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C228">
@@ -25254,7 +25254,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C229">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C230">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C231">
@@ -25581,7 +25581,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C232">
@@ -25690,7 +25690,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C233">
@@ -25799,7 +25799,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C234">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C235">
@@ -26017,7 +26017,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C236">
@@ -26126,7 +26126,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C237">
@@ -26235,7 +26235,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C238">
@@ -26344,7 +26344,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C239">
@@ -26453,7 +26453,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C240">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C241">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C242">
@@ -26780,7 +26780,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C243">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C244">
@@ -26998,7 +26998,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C245">
@@ -27107,7 +27107,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C246">
@@ -27216,7 +27216,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C247">
@@ -27325,7 +27325,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C248">
@@ -27434,7 +27434,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C249">
@@ -27543,7 +27543,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C250">
@@ -27652,7 +27652,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C251">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C252">
@@ -27870,7 +27870,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C253">
@@ -27979,7 +27979,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C254">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C255">
@@ -28197,7 +28197,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C256">
@@ -28306,7 +28306,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C257">
@@ -28415,7 +28415,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C258">
@@ -28524,7 +28524,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C259">
@@ -28633,7 +28633,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C260">
@@ -28742,7 +28742,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C261">
@@ -28851,7 +28851,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C262">
@@ -28960,7 +28960,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C263">
@@ -29069,7 +29069,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C264">
@@ -29178,7 +29178,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C265">
@@ -29287,7 +29287,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C266">
@@ -29396,7 +29396,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C267">
@@ -29505,7 +29505,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C268">
@@ -29614,7 +29614,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C269">
@@ -29723,7 +29723,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C270">
@@ -29832,7 +29832,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C271">
@@ -29941,7 +29941,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C272">
@@ -30050,7 +30050,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C273">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C274">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C275">
@@ -30377,7 +30377,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C276">
@@ -30486,7 +30486,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C277">
@@ -30595,7 +30595,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C278">
@@ -30704,7 +30704,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C279">
@@ -30813,7 +30813,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C280">
@@ -30922,7 +30922,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C281">
@@ -31031,7 +31031,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C282">
@@ -31140,7 +31140,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C283">
@@ -31249,7 +31249,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C284">
@@ -31358,7 +31358,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C285">
@@ -31467,7 +31467,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C286">
@@ -31576,7 +31576,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C287">
@@ -31685,7 +31685,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C288">
@@ -31794,7 +31794,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C289">
@@ -31903,7 +31903,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C290">
@@ -32012,7 +32012,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C291">
@@ -32121,7 +32121,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C292">
@@ -32230,7 +32230,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C293">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C294">
@@ -32448,7 +32448,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C295">
@@ -32557,7 +32557,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C296">
@@ -32666,7 +32666,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C297">
@@ -32775,7 +32775,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C298">
@@ -32884,7 +32884,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C299">
@@ -32993,7 +32993,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C300">
@@ -33102,7 +33102,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C301">
@@ -33211,7 +33211,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C302">
@@ -33320,7 +33320,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C303">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C304">
@@ -33538,7 +33538,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C305">
@@ -33647,7 +33647,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C306">
@@ -33756,7 +33756,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C307">
@@ -33865,7 +33865,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C308">
@@ -33974,7 +33974,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C309">
@@ -34083,7 +34083,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C310">
@@ -34192,7 +34192,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C311">
@@ -34301,7 +34301,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C312">
@@ -34410,7 +34410,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C313">
@@ -34519,7 +34519,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C314">
@@ -34628,7 +34628,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C315">
@@ -34737,7 +34737,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C316">
@@ -34846,7 +34846,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C317">
@@ -34955,7 +34955,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C318">
@@ -35064,7 +35064,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C319">
@@ -35173,7 +35173,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C320">
@@ -35282,7 +35282,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C321">
@@ -35391,7 +35391,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C322">
@@ -35500,7 +35500,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C323">
@@ -35609,7 +35609,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C324">
@@ -35718,7 +35718,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C325">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C326">
@@ -35936,7 +35936,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C327">

--- a/sims_impact_data_all_injuries.xlsx
+++ b/sims_impact_data_all_injuries.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1855,12 +1855,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4362,12 +4362,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4689,12 +4689,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4798,12 +4798,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5779,12 +5779,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -6542,12 +6542,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -6978,12 +6978,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -7087,12 +7087,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -7414,12 +7414,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -7741,12 +7741,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -8068,12 +8068,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -8177,12 +8177,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -8286,12 +8286,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -8395,12 +8395,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -9158,12 +9158,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -9267,12 +9267,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -9376,12 +9376,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -9594,12 +9594,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -10139,12 +10139,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -10357,12 +10357,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -11229,12 +11229,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -11665,12 +11665,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -11774,12 +11774,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -11992,12 +11992,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -12101,12 +12101,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -12537,12 +12537,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -12755,12 +12755,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -12973,12 +12973,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -14499,12 +14499,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -14608,12 +14608,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -14717,12 +14717,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -14826,12 +14826,12 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -14935,12 +14935,12 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -15153,12 +15153,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -15371,12 +15371,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -15589,12 +15589,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -15698,12 +15698,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -15807,12 +15807,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -15916,12 +15916,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -16025,12 +16025,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -16352,12 +16352,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -16679,12 +16679,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -17442,12 +17442,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -18096,12 +18096,12 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -18205,12 +18205,12 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -18314,12 +18314,12 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -18423,12 +18423,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -18641,12 +18641,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -18968,12 +18968,12 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -19295,12 +19295,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -19622,12 +19622,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -19840,12 +19840,12 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -20494,7 +20494,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -21039,12 +21039,12 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -21366,12 +21366,12 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -21475,12 +21475,12 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -21584,7 +21584,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -21693,12 +21693,12 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -21911,12 +21911,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -22020,12 +22020,12 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -22129,12 +22129,12 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -22238,12 +22238,12 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -22679,7 +22679,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -23442,7 +23442,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -23982,12 +23982,12 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -24091,12 +24091,12 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -24200,12 +24200,12 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -24309,12 +24309,12 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -24527,12 +24527,12 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -24636,12 +24636,12 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -24745,12 +24745,12 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -24963,12 +24963,12 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -25072,12 +25072,12 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -25186,7 +25186,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -25617,7 +25617,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -25726,12 +25726,12 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -25944,7 +25944,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -26053,12 +26053,12 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -26162,12 +26162,12 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -26271,12 +26271,12 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -26489,12 +26489,12 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -26598,7 +26598,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -27143,12 +27143,12 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -27361,12 +27361,12 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -27470,12 +27470,12 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -27579,12 +27579,12 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -27911,7 +27911,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -28778,12 +28778,12 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -29214,12 +29214,12 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -29323,12 +29323,12 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -29432,12 +29432,12 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -29650,12 +29650,12 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -29868,12 +29868,12 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -30631,12 +30631,12 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -30958,12 +30958,12 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -31067,12 +31067,12 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -31394,12 +31394,12 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -31612,12 +31612,12 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -31721,12 +31721,12 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -31830,12 +31830,12 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -32157,12 +32157,12 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -32266,12 +32266,12 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -32375,12 +32375,12 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -32702,12 +32702,12 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -32811,12 +32811,12 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -33247,12 +33247,12 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -33356,12 +33356,12 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -33465,12 +33465,12 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -33574,12 +33574,12 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -33792,12 +33792,12 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -34119,12 +34119,12 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -34228,12 +34228,12 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -34337,7 +34337,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -34560,7 +34560,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -34773,12 +34773,12 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -34882,12 +34882,12 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -35209,12 +35209,12 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -35427,12 +35427,12 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -35536,12 +35536,12 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -35645,7 +35645,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -35863,12 +35863,12 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
